--- a/Excel/MonsterSpecialConfig.xlsx
+++ b/Excel/MonsterSpecialConfig.xlsx
@@ -70,7 +70,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>10</t>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/MonsterSpecialConfig.xlsx
+++ b/Excel/MonsterSpecialConfig.xlsx
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>16</v>

--- a/Excel/MonsterSpecialConfig.xlsx
+++ b/Excel/MonsterSpecialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>

--- a/Excel/MonsterSpecialConfig.xlsx
+++ b/Excel/MonsterSpecialConfig.xlsx
@@ -9,17 +9,30 @@
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>MapId</t>
+    <t>MapLevel</t>
   </si>
   <si>
     <t>Name</t>
@@ -70,13 +83,25 @@
     <t>1</t>
   </si>
   <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>幼龙</t>
+  </si>
+  <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>1200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1034,7 +1059,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1183,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1195,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>16</v>
@@ -1208,15 +1233,33 @@
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="3:11">
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:8">
       <c r="C8"/>
@@ -1699,7 +1742,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 F4:H4 F5 G5 H5 C3:C5 D4:D5 E4:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 D4 F4:H4 D5 F5 G5 H5 C3:C5 E4:E5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterSpecialConfig.xlsx
+++ b/Excel/MonsterSpecialConfig.xlsx
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
